--- a/medicine/Pharmacie/1817_en_santé_et_médecine/1817_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1817_en_santé_et_médecine/1817_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1817_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1817_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1817 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1817_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1817_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8 mars : Prenant note de l'examen de Marie-Mélanie Basset[1], Laennec donne une première description de son stéthoscope[2].
-Mai : Début d'une épidémie de peste en Algérie ; elle prendra fin en février 1818[3].
-6 octobre : Fondation de la faculté de médecine de l'université d'État de Louvain[4].
-François-Emmanuel Fodéré (1764-1835), pionnier de la médecine légale, publie son Traité du délire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 mars : Prenant note de l'examen de Marie-Mélanie Basset, Laennec donne une première description de son stéthoscope.
+Mai : Début d'une épidémie de peste en Algérie ; elle prendra fin en février 1818.
+6 octobre : Fondation de la faculté de médecine de l'université d'État de Louvain.
+François-Emmanuel Fodéré (1764-1835), pionnier de la médecine légale, publie son Traité du délire.
 Début de la première pandémie de choléra (1817-1824).</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1817_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1817_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Robert Hooper (en) publie une nouvelle édition de  A new medical dictionary : containing an explanation of the terms in anatomy … and the various branches of natural philosophy connected with medicine (Quincy' medical lexicon)[6].
-Première édition, le 8 août, des Éléments de chimie médicale de Mathieu Orfila (1787-1853)[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Robert Hooper (en) publie une nouvelle édition de  A new medical dictionary : containing an explanation of the terms in anatomy … and the various branches of natural philosophy connected with medicine (Quincy' medical lexicon).
+Première édition, le 8 août, des Éléments de chimie médicale de Mathieu Orfila (1787-1853).
 James Parkinson publie An essay on the shaking palsy, qui décrit une paralysis agitans aujourd'hui appelée maladie de Parkinson.
-Henri Savigny (1793-1843), ex-chirurgien de la Marine, et Alexandre Corréard publient leur ouvrage sur le naufrage de La Méduse, dont ils sont eux-mêmes des rescapés[8].
+Henri Savigny (1793-1843), ex-chirurgien de la Marine, et Alexandre Corréard publient leur ouvrage sur le naufrage de La Méduse, dont ils sont eux-mêmes des rescapés.
 Kurt Sprengel : Critical review of the state of medicine during the last ten years.
-Caspar Wistar : A system of anatomy for the use of students of medicine[9].</t>
+Caspar Wistar : A system of anatomy for the use of students of medicine.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1817_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1817_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 mars : Charles Daremberg (mort en 1872), médecin, historien de la médecine et bibliothécaire français.
 8 avril : Charles-Édouard Brown-Séquard (mort en 1894), physiologiste et neurologue français, né Britannique.
@@ -588,7 +606,7 @@
 11 juillet : Nicolas Basile Bailly (mort en 1903), médecin, inspecteur des Eaux, maire de Bains-les-Bains et conseiller général des Vosges.
 29 juillet : Wilhelm Griesinger (mort en 1868), interniste et psychiatre allemand.
 9 août : Alphonse Guérin (mort en 1895), médecin et chirurgien français.
-26 novembre : Charles Adolphe Wurtz (mort en 1884), médecin et chimiste français[10], récompensé par la médaille Copley en 1881[11].
+26 novembre : Charles Adolphe Wurtz (mort en 1884), médecin et chimiste français, récompensé par la médaille Copley en 1881.
 17 décembre : Jules Béclard (mort en 1887), physiologiste français.
 13 décembre : Arthur Hill Hassall (mort en 1894), médecin et microbiologiste anglais.
 Date inconnue
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1817_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1817_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,13 +638,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>14 avril : Louis Odier (né en 1748), médecin, traducteur et éditeur suisse.
 2 octobre : Alexander Monro (né en 1733), anatomiste écossais.
 14 novembre : Thaddeus Haenke (né en 1761), médecin, botaniste, explorateur et géographe tchèque.
 Date inconnue
-Marie-Vincent Talochon, dit « le père Élisée » (né en 1753), premier chirurgien de Louis XVIII[12].
+Marie-Vincent Talochon, dit « le père Élisée » (né en 1753), premier chirurgien de Louis XVIII.
 William Charles Wells (né en 1757), médecin et physicien américain.</t>
         </is>
       </c>
